--- a/data/QA Monthly Infographic - Hyperlinks.xlsx
+++ b/data/QA Monthly Infographic - Hyperlinks.xlsx
@@ -522,12 +522,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>61924</t>
+          <t>42472</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Air Canada Maple Leaf SFO</t>
+          <t>Comcast lliff</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -541,7 +541,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>81.32</t>
+          <t>86.50</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>42472</t>
+          <t>61924</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Comcast lliff</t>
+          <t>Air Canada Maple Leaf SFO</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>86.50</t>
+          <t>81.32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>T-80814</t>
+          <t>T-80817</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -1099,12 +1099,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>machine cleaned</t>
+          <t>working on getting plumsense access for hourly associates</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>T-80815</t>
+          <t>T-80814</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -1147,12 +1147,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>FLIK 7 - Paper Logs: Warewashing</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>log printed and team retrained</t>
+          <t>machine cleaned</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>T-80818</t>
+          <t>T-80815</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -1195,12 +1195,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1002--In-use utensils are properly stored. Proper utensils used to dispense food.</t>
+          <t>FLIK 7 - Paper Logs: Warewashing</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>trained team on where in-use items are stored.</t>
+          <t>log printed and team retrained</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>T-80817</t>
+          <t>T-80818</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
+          <t>1002--In-use utensils are properly stored. Proper utensils used to dispense food.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>working on getting plumsense access for hourly associates</t>
+          <t>trained team on where in-use items are stored.</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>T-80326</t>
+          <t>T-80315</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Proper procedure has been reiterated to the team. Ongoing pre service reminders</t>
+          <t>Storage of italian meats on the deli has been corrected</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>T-80324</t>
+          <t>T-80325</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1435,12 +1435,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>903--There is no expired ready-to-eat TCS food present (prepped in the unit or commercially prepared).</t>
+          <t>1100--Non-food contact surfaces are clean.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Team members have been addressed, proper procedures are to be included with pre service</t>
+          <t>Team members have been addressed, cleaning has been assigned.</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>T-80327</t>
+          <t>T-80314</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>505--Food is properly stored to protect it from contamination (i.e. stored off the floor, kept covered during storage, properly stored on ice, not located in prohibited areas).</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>This has been addressed, will be monitored</t>
+          <t>Can opener is integrated into daily process, timing and process has been adjusted</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>T-80314</t>
+          <t>T-80316</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>1003--All single service items are stored, handled and used to prevent contamination. Single use items are not re-used.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Can opener is integrated into daily process, timing and process has been adjusted</t>
+          <t>Tasting spoon container was dirty, team member addressed. Regular container changes implemented</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>T-80316</t>
+          <t>T-80328</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1627,12 +1627,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1003--All single service items are stored, handled and used to prevent contamination. Single use items are not re-used.</t>
+          <t>1100--Non-food contact surfaces are clean.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Tasting spoon container was dirty, team member addressed. Regular container changes implemented</t>
+          <t>This has been addressed and is part of closing routines</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>T-80320</t>
+          <t>T-80323</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1675,12 +1675,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>504--There is no potential for cross contamination between raw animal foods and ready to eat food. Proper hierarchy is followed.</t>
+          <t>1403--Ventilation systems are provided, functioning properly (i.e. hood systems, exhaust vents, ceiling vents) and are clean.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Team member has been coached, documentation to occur</t>
+          <t>Speaking with facilities to get vendor in for cleaning. Grill cook will pull screens weekly</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>T-80325</t>
+          <t>T-80319</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1723,12 +1723,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1100--Non-food contact surfaces are clean.</t>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Team members have been addressed, cleaning has been assigned.</t>
+          <t>Spills to be cleaned in the moment. Team to be reminded ongoing in preservice</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>T-80321</t>
+          <t>T-80317</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>1004--Food contact surfaces are properly designed and constructed, and in good repair.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Process in barista has been addressed, can opener cleaning routine reiterated to team</t>
+          <t>Ordering new cutting boards, improving cleaning procedures</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>T-80315</t>
+          <t>T-80318</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1819,12 +1819,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+          <t>1002--In-use utensils are properly stored. Proper utensils used to dispense food.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Storage of italian meats on the deli has been corrected</t>
+          <t>Team coached, process adjusted</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>T-80317</t>
+          <t>T-80326</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1867,12 +1867,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1004--Food contact surfaces are properly designed and constructed, and in good repair.</t>
+          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Ordering new cutting boards, improving cleaning procedures</t>
+          <t>Proper procedure has been reiterated to the team. Ongoing pre service reminders</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>T-80328</t>
+          <t>T-80327</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1915,12 +1915,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1100--Non-food contact surfaces are clean.</t>
+          <t>505--Food is properly stored to protect it from contamination (i.e. stored off the floor, kept covered during storage, properly stored on ice, not located in prohibited areas).</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>This has been addressed and is part of closing routines</t>
+          <t>This has been addressed, will be monitored</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>T-80319</t>
+          <t>T-80324</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1963,12 +1963,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+          <t>903--There is no expired ready-to-eat TCS food present (prepped in the unit or commercially prepared).</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Spills to be cleaned in the moment. Team to be reminded ongoing in preservice</t>
+          <t>Team members have been addressed, proper procedures are to be included with pre service</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>T-80318</t>
+          <t>T-80320</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2011,12 +2011,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1002--In-use utensils are properly stored. Proper utensils used to dispense food.</t>
+          <t>504--There is no potential for cross contamination between raw animal foods and ready to eat food. Proper hierarchy is followed.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Team coached, process adjusted</t>
+          <t>Team member has been coached, documentation to occur</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>T-80323</t>
+          <t>T-80321</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2059,12 +2059,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1403--Ventilation systems are provided, functioning properly (i.e. hood systems, exhaust vents, ceiling vents) and are clean.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Speaking with facilities to get vendor in for cleaning. Grill cook will pull screens weekly</t>
+          <t>Process in barista has been addressed, can opener cleaning routine reiterated to team</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UA SFO Club F11</t>
+          <t>UA SFO Polaris</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>58003A</t>
+          <t>58001A</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>T-80141</t>
+          <t>T-80107</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -2107,16 +2107,16 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1200--All chemicals are properly labeled according to their contents. Chemical containers are not re-used to store food.</t>
+          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>All spray bottles not labeled have been labeled</t>
+          <t>Moving forward, after a product is cooked it will go straight to Staubs and will be placed in the hot box immedietly for hot holding. Manage associates to finish tasks completely before starting a new task.</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2127,12 +2127,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Air Canada Maple Leaf SFO</t>
+          <t>UA SFO Polaris</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>61924</t>
+          <t>58001A</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>T-80214</t>
+          <t>T-80108</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -2160,11 +2160,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Please see last ticket. as this was addressed. The can opener has been addressed with all staff as well and explained that it causes cross contamination when not cleaned after each use.</t>
+          <t>A: Due to the slow interval ice cycle of the ice machines, it is now able to accumulate mildew quicker than before. Ice machine will be wiped down weekly moving forward, and a deeper clean every 2 weeks. B: At first glance the deli slicer was clean, but the food debri under said otherwise. Moving forward, every closing we will dismantle and clean the deli slicer as much as possible since the blade cannot be taken out. C.Reminded the team to not leave anything in food containers, ordered scoopers with hooks to hang outside. D. Will change locations of either toaster or the can opener, the food debris from the toaster drops on the can opener. E. Bar soda gun was maintained almost a month a go by the coca cola tech, he is scheduled to come back soon. *note: Schedule a time on when to use the slicer and can opener.</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Air Canada Maple Leaf SFO</t>
+          <t>UA SFO Club F11</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>61924</t>
+          <t>58003A</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>T-80219</t>
+          <t>T-80151</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -2203,16 +2203,16 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>604--Dishwashing machines are properly operated and maintained clean/in good condition.</t>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Veteran dishwasher Jose Paz deliberately placed a dishwash glove in the basin of the machine. I am not sure why auditor did not observe the glove. The glove was removed and the machine temped fine. When brought to auditors attention, she stated she had already submitted report, but would leave a note. Jose has been issued a PC for his actions.</t>
+          <t>Ice Bath has been addressed. New process is being discussed with executive chef, Coffee service milk monitoring frequency has been increased.</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Air Canada Maple Leaf SFO</t>
+          <t>Comcast Inverness</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>61924</t>
+          <t>51680</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>T-80220</t>
+          <t>T-80266</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2251,16 +2251,16 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
+          <t>1403--Ventilation systems are provided, functioning properly (i.e. hood systems, exhaust vents, ceiling vents) and are clean.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>New servers are receiving additional trainings (with signoffs).  Marta Iraheta who is the veteran server responsible for completing logs is receiving a PC.</t>
+          <t>Plan in place on Friday, 9/20/24, when the ice machine is being cleaned to clean vents above.</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UA SFO Polaris</t>
+          <t>Air Canada Maple Leaf SFO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>58001A</t>
+          <t>61924</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>T-80103</t>
+          <t>T-80216</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>A.Milks were rotated an hour prior to temping. As suggested by the auditor, we will add a ittle bit of ice in the milk container to keep the temp. low. will add milks on HACCP B.Somone accidently unplugged the cooler in order to plug the toaster in the morning or in the effort of unplugging the toaster after breakfast service, they accidently unplegged the wrong one , will remind associates not to touch any plugs without permission and especially to not unplug anything.</t>
+          <t>Additional Training will be provided for kitchen so they know they must check Fridge temps in HACCP daily. Chef has been instructed that he MUST check Plumsense daily.</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>UA SFO Polaris</t>
+          <t>Comcast Inverness</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>58001A</t>
+          <t>51680</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>T-80100</t>
+          <t>T-80257</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -2347,16 +2347,16 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>A: Due to the slow interval ice cycle of the ice machines, it is now able to accumulate mildew quicker than before. Ice machine will be wiped down weekly moving forward, and a deeper clean every 2 weeks. B: At first glance the deli slicer was clean, but the food debri under said otherwise. Moving forward, every closing we will dismantle and clean the deli slicer as much as pussible since the blade cannot be taken out. C.Reminded the team to not leave anything in food containers, ordered scoopers with hooks to hang outside. D. Will change locations of either toaster or the can opener, the food debris from the toaster drops on the can opener. E. Bar soda gun was maintained almost a month a go by the coca cola tech, he is scheduled to come back soon. *note: Schedule a time on when to use the slicer and can opener.</t>
+          <t>Will address with facilities. Very difficult to maintain, there are several pumps and pipes underneath. Massive remodel coming 2025.</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>UA SFO Club F11</t>
+          <t>Comcast Inverness</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>58003A</t>
+          <t>51680</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>T-80143</t>
+          <t>T-80265</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2395,837 +2395,834 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>104--The unit has the Compass Group written procedures for responding to a diarrheal or vomiting event.</t>
+          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
-        <is>
-          <t>Printed Polices for Diarrheal and Vomiting were printed out and posted in each of the United clubs</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E30" t="n">
-        <v>9</v>
-      </c>
-      <c r="F30" t="n">
-        <v>17</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>T-80085</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>801--TCS food is cooled from 135F to 70F within 2 hours and from 70F to 41F within 2 hours Not to exceed 4 hours. TCS foods prepared in areas at ambient temperature are cooled to 41F or less within a total of 4 hours.</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Moving forward, it will be placed in a 2in hotel pans in order to cool it quicker. Carney also took a look at the Walk-in and will get new curtains and change the sensor. Going back to the ice wands. Checking after 2 hours. ice wands will be inspected prior to usage,</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E31" t="n">
-        <v>9</v>
-      </c>
-      <c r="F31" t="n">
-        <v>17</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>T-80109</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>We will follow up with progressive discipline. (Checks and balance to be done from manager) ordering more HACCP thermometers ordered. Every shift logs has to be verified by the chef/lead in charge.</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>UA SFO Club F11</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>58003A</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E32" t="n">
-        <v>9</v>
-      </c>
-      <c r="F32" t="n">
-        <v>17</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>T-80153</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>All openings have been reported to United Management for repairs,  Standing water was cleaned up and inspected for cause</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Emirates Lounge SFO</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>44477</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E33" t="n">
-        <v>9</v>
-      </c>
-      <c r="F33" t="n">
-        <v>17</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>T-80238</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Reheating Logs have been put into place and are being utilized as of 9/19.</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E34" t="n">
-        <v>9</v>
-      </c>
-      <c r="F34" t="n">
-        <v>17</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>T-80104</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Ticket already opened with United. Dishwasher was inoperable 2 prior but it works, but not completely. ACME will come back to complete repair.</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>UA SFO Club F11</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>58003A</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E35" t="n">
-        <v>9</v>
-      </c>
-      <c r="F35" t="n">
-        <v>17</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>T-80151</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Ice Bath has been addressed. New process is being discussed with executive chef, Coffee service milk monitoring frequency has been increased.</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E36" t="n">
-        <v>9</v>
-      </c>
-      <c r="F36" t="n">
-        <v>17</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>T-80096</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>812--When time is observed being used as a public health control: written procedures are available and followed.</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Changed the location of the stickers from the bottom, to the back of the container to prevent ice and condensation to dissolve the sticker. Reintroduce using logs on the FSW station instead of stickers.</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Comcast Inverness</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>51680</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E37" t="n">
-        <v>9</v>
-      </c>
-      <c r="F37" t="n">
-        <v>17</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>T-80259</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Have spoken to the team about using the HAACP and properly utilizing all the logs.
-No exceptions anymore.</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E38" t="n">
-        <v>9</v>
-      </c>
-      <c r="F38" t="n">
-        <v>17</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>T-80088</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>505--Food is properly stored to protect it from contamination (i.e. stored off the floor, kept covered during storage, properly stored on ice, not located in prohibited areas).</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Will order dunnage rack, preferably portable and the smallest size possible due to the limited space in the walk-in. This would help with transportation of the rack to be use else where to avoid food touching the floor. (Send dunnage rack to josh)</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E39" t="n">
-        <v>9</v>
-      </c>
-      <c r="F39" t="n">
-        <v>17</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>T-80087</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>402--Food is in wholesome, sound condition and is unadulterated (no spoilage, no contamination with foreign material, intact food packaging). Damaged and/or recalled items are segregated.</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Will remind the whole team to treat ice as food. Spot checks. holding bartenders accountable</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Air Canada Maple Leaf SFO</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>61924</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E40" t="n">
-        <v>9</v>
-      </c>
-      <c r="F40" t="n">
-        <v>17</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>T-80211</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>812--When time is observed being used as a public health control: written procedures are available and followed.</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>This is being addressed with additional training and accountability with Chef and Staff.</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E41" t="n">
-        <v>9</v>
-      </c>
-      <c r="F41" t="n">
-        <v>17</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>T-80091</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>A.Milks were rotated an hour prior to temping. As suggested by the auditor, we will add a ittle bit of ice in the milk container to keep the temp. low. will add milks on HACCP B.Somone accidently unplugged the cooler in order to plug the toaster in the morning or in the effort of unplugging the toaster after breakfast service, they accidently unplegged the wrong one , will remind associates not to touch any plugs without permission and especially to not unplug anything.</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Comcast Inverness</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>51680</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9</v>
-      </c>
-      <c r="F42" t="n">
-        <v>17</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>T-80261</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Spoken to the grill cook about not leaving things out in-between service.
-Lentil and Cucumber salads were a part of the entree, falls under proper cool down when prepping. Prep cook was made aware.</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E43" t="n">
-        <v>9</v>
-      </c>
-      <c r="F43" t="n">
-        <v>17</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>T-80108</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>A: Due to the slow interval ice cycle of the ice machines, it is now able to accumulate mildew quicker than before. Ice machine will be wiped down weekly moving forward, and a deeper clean every 2 weeks. B: At first glance the deli slicer was clean, but the food debri under said otherwise. Moving forward, every closing we will dismantle and clean the deli slicer as much as possible since the blade cannot be taken out. C.Reminded the team to not leave anything in food containers, ordered scoopers with hooks to hang outside. D. Will change locations of either toaster or the can opener, the food debris from the toaster drops on the can opener. E. Bar soda gun was maintained almost a month a go by the coca cola tech, he is scheduled to come back soon. *note: Schedule a time on when to use the slicer and can opener.</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Comcast Inverness</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>51680</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E44" t="n">
-        <v>9</v>
-      </c>
-      <c r="F44" t="n">
-        <v>17</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>T-80258</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Plan in place to thaw and sanitize the ice machine on 9/20/24.
-Can opener have been cleaned and sanitize.</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Emirates Lounge SFO</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>44477</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E45" t="n">
-        <v>9</v>
-      </c>
-      <c r="F45" t="n">
-        <v>17</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>T-80235</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Staff has been reminded they must record all cooler temps.</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Comcast Inverness</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>51680</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E46" t="n">
-        <v>9</v>
-      </c>
-      <c r="F46" t="n">
-        <v>17</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>T-80265</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>Spoke with grill cook to place in shallow pan and put in walk in to rapidly cool down properly. Also remind to log any and all cool downs on proper sheets.
 He has since started doing this.
 Spoke with the prep cook about cold items, time management on the prep and proper cool down methods. Will monitor closer to ensure it is being adhered too.</t>
         </is>
       </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9</v>
+      </c>
+      <c r="F30" t="n">
+        <v>17</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>T-80087</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>402--Food is in wholesome, sound condition and is unadulterated (no spoilage, no contamination with foreign material, intact food packaging). Damaged and/or recalled items are segregated.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Will remind the whole team to treat ice as food. Spot checks. holding bartenders accountable</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>17</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>T-80095</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1100--Non-food contact surfaces are clean.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Debris was immediately cleaned, will purchase flashlights to look at hard to see areas that could be easily missed.  If gasket are in good repair and if not send a message to UA</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Emirates Lounge SFO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>44477</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9</v>
+      </c>
+      <c r="F32" t="n">
+        <v>17</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>T-80238</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Reheating Logs have been put into place and are being utilized as of 9/19.</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>17</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>T-80100</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>A: Due to the slow interval ice cycle of the ice machines, it is now able to accumulate mildew quicker than before. Ice machine will be wiped down weekly moving forward, and a deeper clean every 2 weeks. B: At first glance the deli slicer was clean, but the food debri under said otherwise. Moving forward, every closing we will dismantle and clean the deli slicer as much as pussible since the blade cannot be taken out. C.Reminded the team to not leave anything in food containers, ordered scoopers with hooks to hang outside. D. Will change locations of either toaster or the can opener, the food debris from the toaster drops on the can opener. E. Bar soda gun was maintained almost a month a go by the coca cola tech, he is scheduled to come back soon. *note: Schedule a time on when to use the slicer and can opener.</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Comcast Inverness</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>51680</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>T-80262</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Moved it from the front of the soup wells to the back. Customers just simply have to ask if they would like them.</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>17</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>T-80105</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>A.Milks were rotated an hour prior to temping. As suggested by the auditor, we will add a little bit of ice in the milk container to keep the temp. low. will add milks on HACCP B.Someone accidently unplugged the cooler in order to plug the toaster in the morning or in the effort of unplugging the toaster after breakfast service, they accidently unplugged the wrong one , will remind associates not to touch any plugs without permission and especially to not unplug anything.</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Air Canada Maple Leaf SFO</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>61924</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9</v>
+      </c>
+      <c r="F36" t="n">
+        <v>17</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>T-80213</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Additional HACCP training will be provided for new employees. Veteran server Marta Iraheta is the server responsible for missing temps. She is being issued a first PC for not keeping correct work records.</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9</v>
+      </c>
+      <c r="F37" t="n">
+        <v>17</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>T-80085</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>801--TCS food is cooled from 135F to 70F within 2 hours and from 70F to 41F within 2 hours Not to exceed 4 hours. TCS foods prepared in areas at ambient temperature are cooled to 41F or less within a total of 4 hours.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Moving forward, it will be placed in a 2in hotel pans in order to cool it quicker. Carney also took a look at the Walk-in and will get new curtains and change the sensor. Going back to the ice wands. Checking after 2 hours. ice wands will be inspected prior to usage,</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>17</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>T-80109</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>We will follow up with progressive discipline. (Checks and balance to be done from manager) ordering more HACCP thermometers ordered. Every shift logs has to be verified by the chef/lead in charge.</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>UA SFO Club F11</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>58003A</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>17</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>T-80147</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Temperature log was located and placed in proper placement in log</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Emirates Lounge SFO</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>44477</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>17</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>T-80235</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Staff has been reminded they must record all cooler temps.</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>UA SFO Club F11</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>58003A</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9</v>
+      </c>
+      <c r="F41" t="n">
+        <v>17</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>T-80148</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>All openings in ceilings and walls have been reported to United Management.  Standing water has been cleaned and source investigated</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>17</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>T-80088</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>505--Food is properly stored to protect it from contamination (i.e. stored off the floor, kept covered during storage, properly stored on ice, not located in prohibited areas).</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Will order dunnage rack, preferably portable and the smallest size possible due to the limited space in the walk-in. This would help with transportation of the rack to be use else where to avoid food touching the floor. (Send dunnage rack to josh)</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>UA SFO Club F11</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>58003A</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9</v>
+      </c>
+      <c r="F43" t="n">
+        <v>17</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>T-80150</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1004--Food contact surfaces are properly designed and constructed, and in good repair.</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Knife with rust has been cleaned and sanitized.  New knives are being approved for entry by San Francisco Airport SOC.  Awaiting approval for knife replacement.</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UA SFO Club F11</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>58003A</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>17</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>T-80141</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1200--All chemicals are properly labeled according to their contents. Chemical containers are not re-used to store food.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>All spray bottles not labeled have been labeled</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>17</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>T-80114</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Took out milkcrates and returned the items back to the associates.</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Air Canada Maple Leaf SFO</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>61924</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9</v>
+      </c>
+      <c r="F46" t="n">
+        <v>17</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>T-80219</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>604--Dishwashing machines are properly operated and maintained clean/in good condition.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Veteran dishwasher Jose Paz deliberately placed a dishwash glove in the basin of the machine. I am not sure why auditor did not observe the glove. The glove was removed and the machine temped fine. When brought to auditors attention, she stated she had already submitted report, but would leave a note. Jose has been issued a PC for his actions.</t>
+        </is>
+      </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -3236,12 +3233,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Emirates Lounge SFO</t>
+          <t>Air Canada Maple Leaf SFO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>44477</t>
+          <t>61924</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -3255,7 +3252,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>T-80237</t>
+          <t>T-80214</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -3264,12 +3261,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>FLIK 3A - Paper Logs: Food Production Temperatures</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>EHA compliant paper reheating logs have been put into place &amp;amp; are being utilized as of 9/19/24.</t>
+          <t>Please see last ticket. as this was addressed. The can opener has been addressed with all staff as well and explained that it causes cross contamination when not cleaned after each use.</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -3303,7 +3300,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>T-80215</t>
+          <t>T-80220</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -3312,12 +3309,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Proper Ice Machine training will be provided and assigned to specific individuals for weekly &amp;amp; monthly cleanings. Machines have been being cleaned, but not properly.</t>
+          <t>New servers are receiving additional trainings (with signoffs).  Marta Iraheta who is the veteran server responsible for completing logs is receiving a PC.</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -3332,12 +3329,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>UA SFO Polaris</t>
+          <t>UA SFO Club F11</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>58001A</t>
+          <t>58003A</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -3351,7 +3348,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>T-80102</t>
+          <t>T-80144</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -3360,16 +3357,16 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1100--Non-food contact surfaces are clean.</t>
+          <t>505--Food is properly stored to protect it from contamination (i.e. stored off the floor, kept covered during storage, properly stored on ice, not located in prohibited areas).</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Debris was immedietly cleaned, will purchase flashlights to look at hard to see areas that could be easily missed.  If gasket are in good repair and if not send a message to UA</t>
+          <t>Milk crates were removed all items being stored on milk crates were relocated to shelves or storage racks</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3380,12 +3377,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Comcast Inverness</t>
+          <t>UA SFO Polaris</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>51680</t>
+          <t>58001A</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -3399,7 +3396,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>T-80267</t>
+          <t>T-80092</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -3408,17 +3405,16 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Plan in place to thaw the ice bin this coming Friday, 9/20/24, and deep clean and sanitize.
-Can opener was removed to be clean when inspector was on site. It has since been cleaned and placed under counter until next use.</t>
+          <t>A. Milks were rotated an hour prior to temping. As suggested by the auditor, we will add a little bit of ice in the milk container to keep the temp. low. will add milks on HACCP B. Someone accidently unplugged the cooler in order to plug the toaster in the morning or in the effort of unplugging the toaster after breakfast service, they accidently unplugged the wrong one , will remind associates not to touch any plugs without permission and especially to not unplug anything.</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -3429,12 +3425,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>UA SFO Polaris</t>
+          <t>Comcast Inverness</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>58001A</t>
+          <t>51680</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -3448,7 +3444,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>T-80090</t>
+          <t>T-80263</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -3457,16 +3453,16 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>902--Prepped/opened/thawing ready-to-eat/TCS food intended to be held for more than 24 hours is properly date marked.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>A: Due to the slow interval ice cycle of the ice machines, it is now able to accumulate mildew quicker than before. Ice machine will be wiped down weekly moving forward, and a deeper clean every 2 weeks. B: At first glance the deli slicer was clean, but the food debri under said otherwise. Moving forward, every closing we will dismantle and clean the deli slicer as much as pussible since the blade cannot be taken out. C.Reminded the team to not leave anything in food containers, ordered scoopers with hooks to hang outside. D. Will change locations of either toaster or the can opener, the food debris from the toaster drops on the can opener. E. Bar soda gun was maintained almost a month a go by the coca cola tech, he is scheduled to come back soon. *note: Schedule a time on when to use the slicer and can opener.</t>
+          <t>Spoken to everyone to make sure everything is being labeled correctly, no exceptions. Making it so it is a part of their closing duties now.</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -3496,7 +3492,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>T-80098</t>
+          <t>T-80097</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -3505,12 +3501,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>605--Wiping cloths are properly used and stored. Wiping cloth solutions are properly stored.</t>
+          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Will order more sanitizer buckets to prevent this from happening. Will take out the rest we have in stock. use Cambro to indicate being used for polishing.</t>
+          <t>Will move the container to the stove to maintain hot water reaching 140°F and above (be wary, test it out, don't want people getting burned) Can put it in the bin without water. NOTE: confirm if it is okay to be in container without water.</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -3544,7 +3540,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>T-80092</t>
+          <t>T-80112</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -3553,12 +3549,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+          <t>1303--Plumbing is maintained in good repair.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>A. Milks were rotated an hour prior to temping. As suggested by the auditor, we will add a little bit of ice in the milk container to keep the temp. low. will add milks on HACCP B. Someone accidently unplugged the cooler in order to plug the toaster in the morning or in the effort of unplugging the toaster after breakfast service, they accidently unplugged the wrong one , will remind associates not to touch any plugs without permission and especially to not unplug anything.</t>
+          <t>This was fixed recently, will open another ticket with United Facilities.</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -3573,12 +3569,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Comcast Inverness</t>
+          <t>UA SFO Polaris</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>51680</t>
+          <t>58001A</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -3592,7 +3588,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>T-80255</t>
+          <t>T-80094</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -3601,17 +3597,16 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1100--Non-food contact surfaces are clean.</t>
+          <t>FLIK 9-TCS food items in original packaging are marked with date received.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Spoken to the grill cook at great lengths about the fryer on how it needs to be cleaned every day, not just detailed when it is changed.
-Spoken to team on getting the cabinets cleaned and decluttered once and for all.</t>
+          <t>Management will double check all receiving date of individual items take out of the box. Note to file to both porters.</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -3622,12 +3617,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>UA SFO Club F11</t>
+          <t>Comcast Inverness</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>58003A</t>
+          <t>51680</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -3641,7 +3636,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>T-80152</t>
+          <t>T-80258</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -3650,16 +3645,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Temperature log was located and inserted into proper placement in Log book</t>
+          <t>Plan in place to thaw and sanitize the ice machine on 9/20/24.
+Can opener have been cleaned and sanitize.</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3670,12 +3666,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Comcast Inverness</t>
+          <t>UA SFO Polaris</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>51680</t>
+          <t>58001A</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -3689,7 +3685,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>T-80266</t>
+          <t>T-80090</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -3698,16 +3694,16 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1403--Ventilation systems are provided, functioning properly (i.e. hood systems, exhaust vents, ceiling vents) and are clean.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Plan in place on Friday, 9/20/24, when the ice machine is being cleaned to clean vents above.</t>
+          <t>A: Due to the slow interval ice cycle of the ice machines, it is now able to accumulate mildew quicker than before. Ice machine will be wiped down weekly moving forward, and a deeper clean every 2 weeks. B: At first glance the deli slicer was clean, but the food debri under said otherwise. Moving forward, every closing we will dismantle and clean the deli slicer as much as pussible since the blade cannot be taken out. C.Reminded the team to not leave anything in food containers, ordered scoopers with hooks to hang outside. D. Will change locations of either toaster or the can opener, the food debris from the toaster drops on the can opener. E. Bar soda gun was maintained almost a month a go by the coca cola tech, he is scheduled to come back soon. *note: Schedule a time on when to use the slicer and can opener.</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3718,12 +3714,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>UA SFO Club F11</t>
+          <t>UA SFO Polaris</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>58003A</t>
+          <t>58001A</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -3737,7 +3733,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>T-80150</t>
+          <t>T-80099</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -3746,16 +3742,16 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1004--Food contact surfaces are properly designed and constructed, and in good repair.</t>
+          <t>1300--Pest activity/evidence of pest activity is not observed.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Knife with rust has been cleaned and sanitized.  New knives are being approved for entry by San Francisco Airport SOC.  Awaiting approval for knife replacement.</t>
+          <t>Will take an additional step to wipe down reachable areas and to purchase fan blowers to help dry the standing liquid in the inner side of the bar counter that we usually cannot access without taking apart the bar. Will also purchase flashlights to look at hard to see areas that could be easily missed.  Get foamer to get gunk out then pressure wash wiped then dried.</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -3766,12 +3762,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Comcast Inverness</t>
+          <t>Air Canada Maple Leaf SFO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>51680</t>
+          <t>61924</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -3785,7 +3781,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>T-80264</t>
+          <t>T-80211</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3794,16 +3790,16 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
+          <t>812--When time is observed being used as a public health control: written procedures are available and followed.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Spoken to the grill cook about ensuring temps are being taken actuality and making sure that it is documented what he is temping, consistently.</t>
+          <t>This is being addressed with additional training and accountability with Chef and Staff.</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -3814,12 +3810,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>UA SFO Club F11</t>
+          <t>Comcast Inverness</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58003A</t>
+          <t>51680</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -3833,7 +3829,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>T-80142</t>
+          <t>T-80256</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -3842,835 +3838,837 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>1303--Plumbing is maintained in good repair.</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
-        <is>
-          <t>Plumbing leak for the 3 compartment sink has been reported to the United Management team for repair</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Air Canada Maple Leaf SFO</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>61924</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E60" t="n">
-        <v>9</v>
-      </c>
-      <c r="F60" t="n">
-        <v>17</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>T-80213</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Additional HACCP training will be provided for new employees. Veteran server Marta Iraheta is the server responsible for missing temps. She is being issued a first PC for not keeping correct work records.</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E61" t="n">
-        <v>9</v>
-      </c>
-      <c r="F61" t="n">
-        <v>17</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>T-80113</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>1403--Ventilation systems are provided, functioning properly (i.e. hood systems, exhaust vents, ceiling vents) and are clean.</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Walk-in fans has been scheduled to be cleaned overnight.</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E62" t="n">
-        <v>9</v>
-      </c>
-      <c r="F62" t="n">
-        <v>17</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>T-80089</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Will order a hot holding thermometer, hot box has a visible thermostat built in, but clarified by the auditor that we still need another thermometer.</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E63" t="n">
-        <v>9</v>
-      </c>
-      <c r="F63" t="n">
-        <v>17</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>T-80111</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Will move the container to the stove to maintain hot water reaching 140°F and above (be wary, test it out, don't want people getting burned) Can put it in the bin without water. NOTE: confirm if it is okay to be in container without water.</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>UA SFO Club F11</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>58003A</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E64" t="n">
-        <v>9</v>
-      </c>
-      <c r="F64" t="n">
-        <v>17</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>T-80144</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>505--Food is properly stored to protect it from contamination (i.e. stored off the floor, kept covered during storage, properly stored on ice, not located in prohibited areas).</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Milk crates were removed all items being stored on milk crates were relocated to shelves or storage racks</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>UA SFO Club F11</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>58003A</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E65" t="n">
-        <v>9</v>
-      </c>
-      <c r="F65" t="n">
-        <v>17</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>T-80145</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Succotash was removed and replaced with properly heated product</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E66" t="n">
-        <v>9</v>
-      </c>
-      <c r="F66" t="n">
-        <v>17</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>T-80094</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>FLIK 9-TCS food items in original packaging are marked with date received.</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Management will double check all receiving date of individual items take out of the box. Note to file to both porters.</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E67" t="n">
-        <v>9</v>
-      </c>
-      <c r="F67" t="n">
-        <v>17</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>T-80099</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>1300--Pest activity/evidence of pest activity is not observed.</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Will take an additional step to wipe down reachable areas and to purchase fan blowers to help dry the standing liquid in the inner side of the bar counter that we usually cannot access without taking apart the bar. Will also purchase flashlights to look at hard to see areas that could be easily missed.  Get foamer to get gunk out then pressure wash wiped then dried.</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Comcast Inverness</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>51680</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E68" t="n">
-        <v>9</v>
-      </c>
-      <c r="F68" t="n">
-        <v>17</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>T-80254</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>1100--Non-food contact surfaces are clean.</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Spoken to the grill cook at great lengths about the fryer on how it needs to be cleaned every day, not just detailed when it is changed.
-Spoken to team on getting the cabinets cleaned and decluttered once and for all.</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E69" t="n">
-        <v>9</v>
-      </c>
-      <c r="F69" t="n">
-        <v>17</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>T-80101</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>1201--Toxic items (i.e. chemicals, medicine, first aid supplies, personal care items) are properly stored to prevent contamination. No unnecessary chemicals are present.</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Will ensure no chemicals are within guest's view and away from food contact surfaces. Will keep the area behind the bar clear and empty, mugs should be placed in their designated areas. Document associates to know how to clean it.</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>UA SFO Club F11</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>58003A</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E70" t="n">
-        <v>9</v>
-      </c>
-      <c r="F70" t="n">
-        <v>17</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>T-80155</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Solid food contact surface was immediately cleaned and ice machine was cleaned and sanitized during inspection</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Comcast Inverness</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>51680</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E71" t="n">
-        <v>9</v>
-      </c>
-      <c r="F71" t="n">
-        <v>17</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>T-80257</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Will address with facilities. Very difficult to maintain, there are several pumps and pipes underneath. Massive remodel coming 2025.</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Air Canada Maple Leaf SFO</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>61924</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E72" t="n">
-        <v>9</v>
-      </c>
-      <c r="F72" t="n">
-        <v>17</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>T-80217</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>The bar area has been deep cleaned and those responsible have received a note in their file.</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Comcast Inverness</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>51680</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9</v>
-      </c>
-      <c r="F73" t="n">
-        <v>17</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>T-80263</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>902--Prepped/opened/thawing ready-to-eat/TCS food intended to be held for more than 24 hours is properly date marked.</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Spoken to everyone to make sure everything is being labeled correctly, no exceptions. Making it so it is a part of their closing duties now.</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Comcast Inverness</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>51680</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>T-80262</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Moved it from the front of the soup wells to the back. Customers just simply have to ask if they would like them.</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>UA SFO Polaris</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>58001A</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9</v>
-      </c>
-      <c r="F75" t="n">
-        <v>17</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>T-80093</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>A: Due to the slow interval ice cycle of the ice machines, it is now able to accumulate mildew quicker than before. Ice machine will be wiped down weekly moving forward, and a deeper clean every 2 weeks. B: At first glance the deli slicer was clean, but the food debris under said otherwise. Moving forward, every closing we will dismantle and clean the deli slicer as much as possible since the blade cannot be taken out. C.Reminded the team to not leave anything in food containers, ordered scoopers with hooks to hang outside. D. Will change locations of either toaster or the can opener, the food debris from the toaster drops on the can opener. E. Bar soda gun was maintained almost a month a go by the coca cola tech, he is scheduled to come back soon. *note: Schedule a time on when to use the slicer and can opener.</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Adam Salem</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Comcast Inverness</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>51680</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9</v>
-      </c>
-      <c r="F76" t="n">
-        <v>17</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>T-80256</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>Have spoken to the team about using the HAACP and properly utilizing all the logs.
 No exceptions anymore.
 Spoken to the grill cook about entree temps being accurately taken with detail. Also Friday still needs to be done, despite the lack of business we have that day.</t>
         </is>
       </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>UA SFO Club F11</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>58003A</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>17</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>T-80149</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>rotation and inspection of milk containers on coffee bar has been increased.  Milk in question was removed and fresh milk replaced.  New process for Ice Bath is being looked at by Executive Chef</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9</v>
+      </c>
+      <c r="F61" t="n">
+        <v>17</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>T-80096</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>812--When time is observed being used as a public health control: written procedures are available and followed.</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Changed the location of the stickers from the bottom, to the back of the container to prevent ice and condensation to dissolve the sticker. Reintroduce using logs on the FSW station instead of stickers.</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Comcast Inverness</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>51680</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>17</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>T-80260</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Have reverted back to placing entree/food in pans so they properly stay warm. No issues as of next day of violation with temps.
+Made aware of everyone to place in shallow pans, so to repeatably freshen and replace to ensure better quality and temperature control.</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E63" t="n">
+        <v>9</v>
+      </c>
+      <c r="F63" t="n">
+        <v>17</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>T-80106</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Ticket already opened with United. Dishwasher was inoperable 2 days prior but it works, but not completely. ACME will come back to complete repair.</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>UA SFO Club F11</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>58003A</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>17</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>T-80142</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1303--Plumbing is maintained in good repair.</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Plumbing leak for the 3 compartment sink has been reported to the United Management team for repair</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>UA SFO Club F11</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>58003A</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>17</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>T-80154</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>1403--Ventilation systems are provided, functioning properly (i.e. hood systems, exhaust vents, ceiling vents) and are clean.</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>New Cleaning process for cleaning fans in walk-in implemented with over night janitorial supervisors</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>17</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>T-80110</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Bottom drawer door was loose and right before the audit it came off, reported to United already. (Use time as a temp temporarily, show we're replacing it every 3 hours or less need log, no need to put it on HACPP)</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>UA SFO Club F11</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>58003A</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9</v>
+      </c>
+      <c r="F67" t="n">
+        <v>17</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>T-80152</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Temperature log was located and inserted into proper placement in Log book</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E68" t="n">
+        <v>9</v>
+      </c>
+      <c r="F68" t="n">
+        <v>17</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>T-80086</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>1302--Pest activity is prevented through proper sealing of outer openings and through elimination of harborage conditions.</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>The bar was recently pressure washed on Wednesday evening. Will take an additional step to wipe down reachable areas and to purchase fan blowers to help dry the standing liquid in the inner side of the bar counter that we usually cannot access without taking apart the bar. Will also purchase flashlights to look at hard to see areas that could be easily missed. Get foamer to get gunk out then pressure wash.</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Comcast Inverness</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>51680</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E69" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" t="n">
+        <v>17</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>T-80259</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Have spoken to the team about using the HAACP and properly utilizing all the logs.
+No exceptions anymore.</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Air Canada Maple Leaf SFO</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>61924</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E70" t="n">
+        <v>9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>17</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>T-80217</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>The bar area has been deep cleaned and those responsible have received a note in their file.</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Comcast Inverness</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>51680</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E71" t="n">
+        <v>9</v>
+      </c>
+      <c r="F71" t="n">
+        <v>17</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>T-80264</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Spoken to the grill cook about ensuring temps are being taken actuality and making sure that it is documented what he is temping, consistently.</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>UA SFO Club F11</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>58003A</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E72" t="n">
+        <v>9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>17</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>T-80143</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>104--The unit has the Compass Group written procedures for responding to a diarrheal or vomiting event.</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Printed Polices for Diarrheal and Vomiting were printed out and posted in each of the United clubs</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E73" t="n">
+        <v>9</v>
+      </c>
+      <c r="F73" t="n">
+        <v>17</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>T-80093</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>A: Due to the slow interval ice cycle of the ice machines, it is now able to accumulate mildew quicker than before. Ice machine will be wiped down weekly moving forward, and a deeper clean every 2 weeks. B: At first glance the deli slicer was clean, but the food debris under said otherwise. Moving forward, every closing we will dismantle and clean the deli slicer as much as possible since the blade cannot be taken out. C.Reminded the team to not leave anything in food containers, ordered scoopers with hooks to hang outside. D. Will change locations of either toaster or the can opener, the food debris from the toaster drops on the can opener. E. Bar soda gun was maintained almost a month a go by the coca cola tech, he is scheduled to come back soon. *note: Schedule a time on when to use the slicer and can opener.</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Comcast Inverness</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>51680</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>17</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>T-80254</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1100--Non-food contact surfaces are clean.</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Spoken to the grill cook at great lengths about the fryer on how it needs to be cleaned every day, not just detailed when it is changed.
+Spoken to team on getting the cabinets cleaned and decluttered once and for all.</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>UA SFO Club F11</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>58003A</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E75" t="n">
+        <v>9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>17</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>T-80145</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Succotash was removed and replaced with properly heated product</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Adam Salem</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>UA SFO Polaris</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>58001A</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9</v>
+      </c>
+      <c r="F76" t="n">
+        <v>17</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>T-80101</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>1201--Toxic items (i.e. chemicals, medicine, first aid supplies, personal care items) are properly stored to prevent contamination. No unnecessary chemicals are present.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Will ensure no chemicals are within guest's view and away from food contact surfaces. Will keep the area behind the bar clear and empty, mugs should be placed in their designated areas. Document associates to know how to clean it.</t>
+        </is>
+      </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -4681,12 +4679,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Air Canada Maple Leaf SFO</t>
+          <t>Emirates Lounge SFO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>61924</t>
+          <t>44477</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -4700,7 +4698,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>T-80218</t>
+          <t>T-80237</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -4709,12 +4707,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>812--When time is observed being used as a public health control: written procedures are available and followed.</t>
+          <t>FLIK 3A - Paper Logs: Food Production Temperatures</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>The incorrect logs were being used. All EHA compliant logs have been updated and are being used.</t>
+          <t>EHA compliant paper reheating logs have been put into place &amp;amp; are being utilized as of 9/19/24.</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -4729,12 +4727,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Comcast Inverness</t>
+          <t>UA SFO Polaris</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>51680</t>
+          <t>58001A</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -4748,7 +4746,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>T-80260</t>
+          <t>T-80091</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -4757,17 +4755,16 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Have reverted back to placing entree/food in pans so they properly stay warm. No issues as of next day of violation with temps.
-Made aware of everyone to place in shallow pans, so to repeatably freshen and replace to ensure better quality and temperature control.</t>
+          <t>A.Milks were rotated an hour prior to temping. As suggested by the auditor, we will add a ittle bit of ice in the milk container to keep the temp. low. will add milks on HACCP B.Somone accidently unplugged the cooler in order to plug the toaster in the morning or in the effort of unplugging the toaster after breakfast service, they accidently unplegged the wrong one , will remind associates not to touch any plugs without permission and especially to not unplug anything.</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -4778,12 +4775,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>UA SFO Polaris</t>
+          <t>UA SFO Club F11</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>58001A</t>
+          <t>58003A</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -4797,7 +4794,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>T-80112</t>
+          <t>T-80153</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -4806,16 +4803,16 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>1303--Plumbing is maintained in good repair.</t>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>This was fixed recently, will open another ticket with United Facilities.</t>
+          <t>All openings have been reported to United Management for repairs,  Standing water was cleaned up and inspected for cause</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4826,12 +4823,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>UA SFO Club F11</t>
+          <t>UA SFO Polaris</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>58003A</t>
+          <t>58001A</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -4845,7 +4842,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>T-80154</t>
+          <t>T-80104</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -4854,16 +4851,16 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>1403--Ventilation systems are provided, functioning properly (i.e. hood systems, exhaust vents, ceiling vents) and are clean.</t>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>New Cleaning process for cleaning fans in walk-in implemented with over night janitorial supervisors</t>
+          <t>Ticket already opened with United. Dishwasher was inoperable 2 prior but it works, but not completely. ACME will come back to complete repair.</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -4874,12 +4871,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>UA SFO Polaris</t>
+          <t>Air Canada Maple Leaf SFO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>58001A</t>
+          <t>61924</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -4893,7 +4890,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>T-80086</t>
+          <t>T-80215</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -4902,16 +4899,16 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1302--Pest activity is prevented through proper sealing of outer openings and through elimination of harborage conditions.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>The bar was recently pressure washed on Wednesday evening. Will take an additional step to wipe down reachable areas and to purchase fan blowers to help dry the standing liquid in the inner side of the bar counter that we usually cannot access without taking apart the bar. Will also purchase flashlights to look at hard to see areas that could be easily missed. Get foamer to get gunk out then pressure wash.</t>
+          <t>Proper Ice Machine training will be provided and assigned to specific individuals for weekly &amp;amp; monthly cleanings. Machines have been being cleaned, but not properly.</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -4941,7 +4938,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>T-80107</t>
+          <t>T-80102</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -4950,12 +4947,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
+          <t>1100--Non-food contact surfaces are clean.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Moving forward, after a product is cooked it will go straight to Staubs and will be placed in the hot box immedietly for hot holding. Manage associates to finish tasks completely before starting a new task.</t>
+          <t>Debris was immedietly cleaned, will purchase flashlights to look at hard to see areas that could be easily missed.  If gasket are in good repair and if not send a message to UA</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -4970,12 +4967,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>UA SFO Polaris</t>
+          <t>UA SFO Club F11</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>58001A</t>
+          <t>58003A</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -4989,7 +4986,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>T-80110</t>
+          <t>T-80155</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -4998,16 +4995,16 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Bottom drawer door was loose and right before the audit it came off, reported to United already. (Use time as a temp temporarily, show we're replacing it every 3 hours or less need log, no need to put it on HACPP)</t>
+          <t>Solid food contact surface was immediately cleaned and ice machine was cleaned and sanitized during inspection</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -5037,7 +5034,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>T-80105</t>
+          <t>T-80098</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -5046,12 +5043,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+          <t>605--Wiping cloths are properly used and stored. Wiping cloth solutions are properly stored.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>A.Milks were rotated an hour prior to temping. As suggested by the auditor, we will add a little bit of ice in the milk container to keep the temp. low. will add milks on HACCP B.Someone accidently unplugged the cooler in order to plug the toaster in the morning or in the effort of unplugging the toaster after breakfast service, they accidently unplugged the wrong one , will remind associates not to touch any plugs without permission and especially to not unplug anything.</t>
+          <t>Will order more sanitizer buckets to prevent this from happening. Will take out the rest we have in stock. use Cambro to indicate being used for polishing.</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -5066,12 +5063,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>UA SFO Club F11</t>
+          <t>UA SFO Polaris</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>58003A</t>
+          <t>58001A</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -5085,7 +5082,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>T-80148</t>
+          <t>T-80103</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -5094,16 +5091,16 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>All openings in ceilings and walls have been reported to United Management.  Standing water has been cleaned and source investigated</t>
+          <t>A.Milks were rotated an hour prior to temping. As suggested by the auditor, we will add a ittle bit of ice in the milk container to keep the temp. low. will add milks on HACCP B.Somone accidently unplugged the cooler in order to plug the toaster in the morning or in the effort of unplugging the toaster after breakfast service, they accidently unplegged the wrong one , will remind associates not to touch any plugs without permission and especially to not unplug anything.</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -5114,12 +5111,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>UA SFO Club F11</t>
+          <t>UA SFO Polaris</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>58003A</t>
+          <t>58001A</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -5133,7 +5130,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>T-80147</t>
+          <t>T-80089</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -5142,16 +5139,16 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Temperature log was located and placed in proper placement in log</t>
+          <t>Will order a hot holding thermometer, hot box has a visible thermostat built in, but clarified by the auditor that we still need another thermometer.</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -5181,7 +5178,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>T-80212</t>
+          <t>T-80218</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -5190,12 +5187,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>1403--Ventilation systems are provided, functioning properly (i.e. hood systems, exhaust vents, ceiling vents) and are clean.</t>
+          <t>812--When time is observed being used as a public health control: written procedures are available and followed.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Walkin fans have been cleaned and placed on weekly cleaning schedule. Hood vents are in process of being cleaned and placed on weekly/monthly schedule.</t>
+          <t>The incorrect logs were being used. All EHA compliant logs have been updated and are being used.</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -5210,12 +5207,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>UA SFO Club F11</t>
+          <t>Comcast Inverness</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>58003A</t>
+          <t>51680</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -5229,7 +5226,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>T-80149</t>
+          <t>T-80255</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -5238,16 +5235,17 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+          <t>1100--Non-food contact surfaces are clean.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>rotation and inspection of milk containers on coffee bar has been increased.  Milk in question was removed and fresh milk replaced.  New process for Ice Bath is being looked at by Executive Chef</t>
+          <t>Spoken to the grill cook at great lengths about the fryer on how it needs to be cleaned every day, not just detailed when it is changed.
+Spoken to team on getting the cabinets cleaned and decluttered once and for all.</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -5258,12 +5256,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>UA SFO Polaris</t>
+          <t>Air Canada Maple Leaf SFO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>58001A</t>
+          <t>61924</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -5277,7 +5275,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>T-80097</t>
+          <t>T-80212</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -5286,16 +5284,16 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
+          <t>1403--Ventilation systems are provided, functioning properly (i.e. hood systems, exhaust vents, ceiling vents) and are clean.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Will move the container to the stove to maintain hot water reaching 140°F and above (be wary, test it out, don't want people getting burned) Can put it in the bin without water. NOTE: confirm if it is okay to be in container without water.</t>
+          <t>Walkin fans have been cleaned and placed on weekly cleaning schedule. Hood vents are in process of being cleaned and placed on weekly/monthly schedule.</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -5306,12 +5304,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Air Canada Maple Leaf SFO</t>
+          <t>Comcast Inverness</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>61924</t>
+          <t>51680</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -5325,7 +5323,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>T-80216</t>
+          <t>T-80267</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -5334,16 +5332,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Additional Training will be provided for kitchen so they know they must check Fridge temps in HACCP daily. Chef has been instructed that he MUST check Plumsense daily.</t>
+          <t>Plan in place to thaw the ice bin this coming Friday, 9/20/24, and deep clean and sanitize.
+Can opener was removed to be clean when inspector was on site. It has since been cleaned and placed under counter until next use.</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -5402,12 +5401,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>UA SFO Polaris</t>
+          <t>Comcast Inverness</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>58001A</t>
+          <t>51680</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -5421,7 +5420,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>T-80106</t>
+          <t>T-80261</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -5430,16 +5429,17 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Ticket already opened with United. Dishwasher was inoperable 2 days prior but it works, but not completely. ACME will come back to complete repair.</t>
+          <t>Spoken to the grill cook about not leaving things out in-between service.
+Lentil and Cucumber salads were a part of the entree, falls under proper cool down when prepping. Prep cook was made aware.</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>T-80114</t>
+          <t>T-80111</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -5478,12 +5478,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
+          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Took out milkcrates and returned the items back to the associates.</t>
+          <t>Will move the container to the stove to maintain hot water reaching 140°F and above (be wary, test it out, don't want people getting burned) Can put it in the bin without water. NOTE: confirm if it is okay to be in container without water.</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>T-80095</t>
+          <t>T-80113</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -5526,12 +5526,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>1100--Non-food contact surfaces are clean.</t>
+          <t>1403--Ventilation systems are provided, functioning properly (i.e. hood systems, exhaust vents, ceiling vents) and are clean.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Debris was immediately cleaned, will purchase flashlights to look at hard to see areas that could be easily missed.  If gasket are in good repair and if not send a message to UA</t>
+          <t>Walk-in fans has been scheduled to be cleaned overnight.</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>T-80381</t>
+          <t>T-80376</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -5720,12 +5720,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Staff has been reminded and is being monitored daily to ensure proper storage container and cooling procedure is maintained  for raw/fileted/ or cooked poultry.</t>
+          <t>Desktop and portable handheld apps have been downloaded to ensure proper download of logs from HACCP app.</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>T-80383</t>
+          <t>T-80380</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -5768,63 +5768,63 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
+          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>While paper logs are maintained each day with regards to deliveries; HACCP tablet has been implemented daily as well to ensure and monitor proper delivery temps. New Utility worker/receiving person has been trained to use app properly.</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Brian Donohue</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Abbvie Madison</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>47031</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E100" t="n">
+        <v>9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>18</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>T-80383</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
           <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>Contacted management of building to clean out a/c dust in corners of ceiling light inserts/covers and tiles
 Order drain cleaner to better clean floor drain and restore to no stained white.</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Brian Donohue</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Abbvie Madison</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>47031</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E100" t="n">
-        <v>9</v>
-      </c>
-      <c r="F100" t="n">
-        <v>18</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>T-80379</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Management contacted to clean minor dust accumulation from ceiling and light fixtures. As well, cleaning products ordered and implemented to better clean/whiten drain catch under sinks</t>
-        </is>
-      </c>
       <c r="L100" t="n">
         <v>2</v>
       </c>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>T-80376</t>
+          <t>T-80382</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -5865,12 +5865,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Desktop and portable handheld apps have been downloaded to ensure proper download of logs from HACCP app.</t>
+          <t>While logs are monitored daily with temps twice per day; began dually entering temps into HACCP tablet daily</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>T-80380</t>
+          <t>T-80381</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -5913,12 +5913,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
+          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>While paper logs are maintained each day with regards to deliveries; HACCP tablet has been implemented daily as well to ensure and monitor proper delivery temps. New Utility worker/receiving person has been trained to use app properly.</t>
+          <t>Staff has been reminded and is being monitored daily to ensure proper storage container and cooling procedure is maintained  for raw/fileted/ or cooked poultry.</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>T-80382</t>
+          <t>T-80377</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -5961,12 +5961,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>While logs are monitored daily with temps twice per day; began dually entering temps into HACCP tablet daily</t>
+          <t>HACCP monitor tablet and therm have been implemented and is currently being used daily. Paper logs have been up to date and will continue to be.</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>T-80377</t>
+          <t>T-80379</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -6009,12 +6009,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>HACCP monitor tablet and therm have been implemented and is currently being used daily. Paper logs have been up to date and will continue to be.</t>
+          <t>Management contacted to clean minor dust accumulation from ceiling and light fixtures. As well, cleaning products ordered and implemented to better clean/whiten drain catch under sinks</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>T-79485</t>
+          <t>T-79488</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -6057,12 +6057,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+          <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Will work with staff to ensure proper cold contact and temperature holding</t>
+          <t>Will place a WO to get this addressed</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>T-79487</t>
+          <t>T-79486</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -6105,12 +6105,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Will work with staff to ensure proper contact and temperature holding</t>
+          <t>Will place a WO to get this addressed</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>T-79489</t>
+          <t>T-79483</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>1100--Non-food contact surfaces are clean.</t>
+          <t>1300--Pest activity/evidence of pest activity is not observed.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>T-79483</t>
+          <t>T-79491</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -6201,12 +6201,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>1300--Pest activity/evidence of pest activity is not observed.</t>
+          <t>301--Handsinks are accessible, used for no other purpose than to wash hands, and are adequate in number/location.</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Will place a WO to get this addressed</t>
+          <t>Will work with staff to address this ASAP</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>T-79486</t>
+          <t>T-79482</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -6249,12 +6249,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Will place a WO to get this addressed</t>
+          <t>Will work with staff to ensure proper cold contact and temperature holding</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>T-79488</t>
+          <t>T-79490</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -6297,12 +6297,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
+          <t>1302--Pest activity is prevented through proper sealing of outer openings and through elimination of harborage conditions.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Will place a WO to get this addressed</t>
+          <t>Work with facilities to get sealed</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>T-79484</t>
+          <t>T-79485</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -6345,12 +6345,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Will place a WO to get this addressed</t>
+          <t>Will work with staff to ensure proper cold contact and temperature holding</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>T-79490</t>
+          <t>T-79489</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -6393,12 +6393,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>1302--Pest activity is prevented through proper sealing of outer openings and through elimination of harborage conditions.</t>
+          <t>1100--Non-food contact surfaces are clean.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Work with facilities to get sealed</t>
+          <t>Will place a WO to get this addressed</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>T-79482</t>
+          <t>T-79487</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -6441,12 +6441,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Will work with staff to ensure proper cold contact and temperature holding</t>
+          <t>Will work with staff to ensure proper contact and temperature holding</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>T-79491</t>
+          <t>T-79484</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -6489,12 +6489,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>301--Handsinks are accessible, used for no other purpose than to wash hands, and are adequate in number/location.</t>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Will work with staff to address this ASAP</t>
+          <t>Will place a WO to get this addressed</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>T-80980</t>
+          <t>T-80978</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>T-80978</t>
+          <t>T-80980</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>T-80982</t>
+          <t>T-80981</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -6681,12 +6681,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>903--There is no expired ready-to-eat TCS food present (prepped in the unit or commercially prepared).</t>
+          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>re trained team and discussed FIFO and rotation policy</t>
+          <t>n/a - monitor not in place</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>T-80981</t>
+          <t>T-80982</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -6777,12 +6777,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
+          <t>903--There is no expired ready-to-eat TCS food present (prepped in the unit or commercially prepared).</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>n/a - monitor not in place</t>
+          <t>re trained team and discussed FIFO and rotation policy</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>T-80690</t>
+          <t>T-80686</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -6825,16 +6825,16 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>504--There is no potential for cross contamination between raw animal foods and ready to eat food. Proper hierarchy is followed.</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>team was retrained on hierarchy and signage was posted</t>
+          <t>Will keep an eye on plumsense and make sure they are working properly</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>T-80687</t>
+          <t>T-80689</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -6873,12 +6873,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
+          <t>1002--In-use utensils are properly stored. Proper utensils used to dispense food.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>deli fridge is closed until fixed. In terms of the cold station, we are limiting the selections to be able to keep items away from the toaster. staff is filling up half way as breakfast is slow. staff is to rotate more frequently</t>
+          <t>UT staff were spoken to and are on alert to look for these things</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>T-80684</t>
+          <t>T-80690</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -6921,12 +6921,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>504--There is no potential for cross contamination between raw animal foods and ready to eat food. Proper hierarchy is followed.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Dean is aware</t>
+          <t>team was retrained on hierarchy and signage was posted</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>T-80689</t>
+          <t>T-80688</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -6969,12 +6969,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>1002--In-use utensils are properly stored. Proper utensils used to dispense food.</t>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>UT staff were spoken to and are on alert to look for these things</t>
+          <t>entire team was spoken to and we walked the problem areas together.</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>T-80691</t>
+          <t>T-80687</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -7017,12 +7017,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Dean was spoken to about this and will not do again</t>
+          <t>deli fridge is closed until fixed. In terms of the cold station, we are limiting the selections to be able to keep items away from the toaster. staff is filling up half way as breakfast is slow. staff is to rotate more frequently</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>T-80688</t>
+          <t>T-80685</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -7065,12 +7065,12 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+          <t>402--Food is in wholesome, sound condition and is unadulterated (no spoilage, no contamination with foreign material, intact food packaging). Damaged and/or recalled items are segregated.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>entire team was spoken to and we walked the problem areas together.</t>
+          <t>staff were spoken to about dented cans and the dangers.</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>T-80685</t>
+          <t>T-80683</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
@@ -7113,12 +7113,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>402--Food is in wholesome, sound condition and is unadulterated (no spoilage, no contamination with foreign material, intact food packaging). Damaged and/or recalled items are segregated.</t>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>staff were spoken to about dented cans and the dangers.</t>
+          <t>We were told to write on the sheet if we are ever having issues downloading to plumsense, which is what we did</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>T-80686</t>
+          <t>T-80684</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -7161,16 +7161,16 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Will keep an eye on plumsense and make sure they are working properly</t>
+          <t>Dean is aware</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>T-80683</t>
+          <t>T-80691</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -7209,12 +7209,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>We were told to write on the sheet if we are ever having issues downloading to plumsense, which is what we did</t>
+          <t>Dean was spoken to about this and will not do again</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>T-80341</t>
+          <t>T-80345</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -7257,12 +7257,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>1100--Non-food contact surfaces are clean.</t>
+          <t>FLIK 4A - Paper Logs: TCS Receiving temperatures documented for each delivery</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Dishwasher area has been cleaned</t>
+          <t>Issue was addressed</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>T-80335</t>
+          <t>T-80339</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -7305,12 +7305,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>FLIK 3A - Paper Logs: Food Production Temperatures</t>
+          <t>204--Associates demonstrate proper personal cleanliness in regards to fingernails, jewelry, hair restraints, clean outer clothing.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>issue was addressed and proper procedures are being taken care of</t>
+          <t>I spoke with foh employee about his hair needing to be tied back and wear a beard guard</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>T-80344</t>
+          <t>T-80343</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
@@ -7353,12 +7353,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+          <t>1100--Non-food contact surfaces are clean.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>The areas have been cleaned and are added to the daily cleaning list</t>
+          <t>drawers were cleaned that day</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>T-80340</t>
+          <t>T-80341</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -7449,12 +7449,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
+          <t>1100--Non-food contact surfaces are clean.</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>utensils placed in proper area and stored properly</t>
+          <t>Dishwasher area has been cleaned</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>T-80345</t>
+          <t>T-80340</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -7497,12 +7497,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>FLIK 4A - Paper Logs: TCS Receiving temperatures documented for each delivery</t>
+          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Issue was addressed</t>
+          <t>utensils placed in proper area and stored properly</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>T-80337</t>
+          <t>T-80335</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -7545,12 +7545,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
+          <t>FLIK 3A - Paper Logs: Food Production Temperatures</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>the issue is being addressed we have a single station that utilizes the items in question but on plumsense it shows 2 stations that utilize product</t>
+          <t>issue was addressed and proper procedures are being taken care of</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>T-80343</t>
+          <t>T-80337</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
@@ -7689,12 +7689,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>1100--Non-food contact surfaces are clean.</t>
+          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>drawers were cleaned that day</t>
+          <t>the issue is being addressed we have a single station that utilizes the items in question but on plumsense it shows 2 stations that utilize product</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>T-80339</t>
+          <t>T-80344</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
@@ -7737,12 +7737,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>204--Associates demonstrate proper personal cleanliness in regards to fingernails, jewelry, hair restraints, clean outer clothing.</t>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>I spoke with foh employee about his hair needing to be tied back and wear a beard guard</t>
+          <t>The areas have been cleaned and are added to the daily cleaning list</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>T-80015</t>
+          <t>T-80017</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
@@ -7785,12 +7785,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>We are now checking daily that they were submitted correctly. We believe there is connectivity issues that are preventing uploads</t>
+          <t>We are monitoring the heat issue with the toaster by leaving space between and switching product out more often</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>T-80017</t>
+          <t>T-80014</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -7833,12 +7833,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
+          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>We are monitoring the heat issue with the toaster by leaving space between and switching product out more often</t>
+          <t>Apples were wrapped immediately</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>T-80014</t>
+          <t>T-80015</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
@@ -7929,12 +7929,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Apples were wrapped immediately</t>
+          <t>We are now checking daily that they were submitted correctly. We believe there is connectivity issues that are preventing uploads</t>
         </is>
       </c>
       <c r="L144" t="n">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>T-80526</t>
+          <t>T-80528</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
@@ -7977,12 +7977,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Receiving logs are being recorded</t>
+          <t>reach in coolers are being logged</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>T-80523</t>
+          <t>T-80519</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>FLIK 4A - Paper Logs: TCS Receiving temperatures documented for each delivery</t>
+          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>T-80521</t>
+          <t>T-80524</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -8121,12 +8121,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>FLIK 5A - Paper Logs: Refrigeration temperatures are monitored AM and PM daily</t>
+          <t>FLIK 3A - Paper Logs: Food Production Temperatures</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Paper logs are being utilized</t>
+          <t>Paper logs are being filled out daily</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>T-80522</t>
+          <t>T-80526</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
@@ -8169,12 +8169,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Line temperatures are being logged</t>
+          <t>Receiving logs are being recorded</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>T-80524</t>
+          <t>T-80522</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
@@ -8265,12 +8265,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>FLIK 3A - Paper Logs: Food Production Temperatures</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Paper logs are being filled out daily</t>
+          <t>Line temperatures are being logged</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>T-80519</t>
+          <t>T-80523</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
+          <t>FLIK 4A - Paper Logs: TCS Receiving temperatures documented for each delivery</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -8352,7 +8352,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>T-80528</t>
+          <t>T-80521</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
@@ -8361,12 +8361,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+          <t>FLIK 5A - Paper Logs: Refrigeration temperatures are monitored AM and PM daily</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>reach in coolers are being logged</t>
+          <t>Paper logs are being utilized</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>NO--Ice bath not properly set up - Equipment not properly operated or used (CRITICAL)</t>
+          <t>NO--Other: Note in comments below (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -9173,7 +9173,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>NO--Other: Note in comments below (CRITICAL)</t>
+          <t>NO--Ice bath not properly set up - Equipment not properly operated or used (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Interior of ice machine/ice bins and/or ice dispenser chute (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Can opener blade (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Can opener blade (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Interior of ice machine/ice bins and/or ice dispenser chute (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Interior of ice machine/ice bins and/or ice dispenser chute (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Can opener blade (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -9747,7 +9747,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Can opener blade (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Interior of ice machine/ice bins and/or ice dispenser chute (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>NO--Equipment not properly operated or used- Other: Note in comments below (CRITICAL)</t>
+          <t>NO--Refrigerator is unplugged - Equipment not properly operated or used (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -9952,7 +9952,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>NO--Refrigerator is overstocked/inadequate air flow - Equipment not properly operated or used (CRITICAL)</t>
+          <t>NO--Equipment not properly operated or used- Other: Note in comments below (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>NO--Refrigerator is unplugged - Equipment not properly operated or used (CRITICAL)</t>
+          <t>NO--Refrigerator is overstocked/inadequate air flow - Equipment not properly operated or used (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Food storage or display containers (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Other--Note in comments below (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -10813,7 +10813,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Other--Note in comments below (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Food storage or display containers (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>T-80995</t>
+          <t>T-80997</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
         </is>
       </c>
     </row>
@@ -11568,7 +11568,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>T-80997</t>
+          <t>T-80995</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
     </row>
@@ -11608,7 +11608,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>T-80807</t>
+          <t>T-80805</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -11617,7 +11617,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>902--Prepped/opened/thawing ready-to-eat/TCS food intended to be held for more than 24 hours is properly date marked.</t>
+          <t>302--Handsinks are properly supplied with soap, paper towels, and a trash can are clean, and are signed to remind associates to wash hands.</t>
         </is>
       </c>
     </row>
@@ -11629,12 +11629,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>32561</t>
+          <t>27741</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Out of Door Academy</t>
+          <t>Trinity Episcopal School New Orleans</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>T-80812</t>
+          <t>T-80807</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -11669,12 +11669,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27741</t>
+          <t>32561</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Trinity Episcopal School New Orleans</t>
+          <t>Out of Door Academy</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -11688,7 +11688,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>T-80803</t>
+          <t>T-80812</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -11697,7 +11697,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>903--There is no expired ready-to-eat TCS food present (prepped in the unit or commercially prepared).</t>
+          <t>902--Prepped/opened/thawing ready-to-eat/TCS food intended to be held for more than 24 hours is properly date marked.</t>
         </is>
       </c>
     </row>
@@ -11728,7 +11728,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>T-80804</t>
+          <t>T-80806</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1002--In-use utensils are properly stored. Proper utensils used to dispense food.</t>
+          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
         </is>
       </c>
     </row>
@@ -11768,7 +11768,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>T-80805</t>
+          <t>T-80804</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>302--Handsinks are properly supplied with soap, paper towels, and a trash can are clean, and are signed to remind associates to wash hands.</t>
+          <t>1002--In-use utensils are properly stored. Proper utensils used to dispense food.</t>
         </is>
       </c>
     </row>
@@ -11789,12 +11789,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>32561</t>
+          <t>27741</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Out of Door Academy</t>
+          <t>Trinity Episcopal School New Orleans</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>T-80811</t>
+          <t>T-80803</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
+          <t>903--There is no expired ready-to-eat TCS food present (prepped in the unit or commercially prepared).</t>
         </is>
       </c>
     </row>
@@ -11829,12 +11829,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27741</t>
+          <t>32561</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Trinity Episcopal School New Orleans</t>
+          <t>Out of Door Academy</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>T-80806</t>
+          <t>T-80811</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>

--- a/data/QA Monthly Infographic - Hyperlinks.xlsx
+++ b/data/QA Monthly Infographic - Hyperlinks.xlsx
@@ -741,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,12 +819,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Avenues - The World School</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>25523</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>T-82277</t>
+          <t>T-82305</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -847,16 +847,16 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
+          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>had discussion with Deli prep person and stressed the importance of recording temperatures on the log on a daily basis</t>
+          <t>Thermometer has been placed in unit.</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -886,7 +886,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>T-82282</t>
+          <t>T-82278</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -895,12 +895,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1100--Non-food contact surfaces are clean.</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Spoke with Executive Chef and employees and stressed the issue after using Kitchen equipment to please make sure it is cleaned and sanitized</t>
+          <t>Had meeting with all employees and Executive Chef on 11/04/24 and stressed the importance of taking temperatures on a daily basis</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -915,12 +915,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Avenues - The World School</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>25523</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -934,7 +934,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>T-82279</t>
+          <t>T-82307</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -943,16 +943,16 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+          <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Will be monitoring every day to make sure the temperature gets taken. Executive Chef is aware and is following protocol on a daily basis</t>
+          <t>Proposal for new gasket has been approved and we are waiting for parts &amp;amp; installation.</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -963,12 +963,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Avenues - The World School</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>25523</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -982,7 +982,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>T-82276</t>
+          <t>T-82299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -991,16 +991,16 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1004--Food contact surfaces are properly designed and constructed, and in good repair.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Went over which cutting boards needed replacement. Made a list to order from MTucker / Discarded the ones that were not usable</t>
+          <t>New cleaning schedule every week</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Avenues - The World School</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>25523</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>T-82280</t>
+          <t>T-82306</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1039,16 +1039,16 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+          <t>504--There is no potential for cross contamination between raw animal foods and ready to eat food. Proper hierarchy is followed.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>All Drains have been cleaned and sanitized. They were done on 11/04/24 and 11/05/24</t>
+          <t>Staff has been retrained on proper storage.</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Avenues - The World School</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>25523</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>T-82278</t>
+          <t>T-82303</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1087,16 +1087,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>1303--Plumbing is maintained in good repair.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Had meeting with all employees and Executive Chef on 11/04/24 and stressed the importance of taking temperatures on a daily basis</t>
+          <t>Plumber has fixed this leak.</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1107,12 +1107,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Cafe 45 Glover</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>52282</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1122,11 +1122,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>T-81753</t>
+          <t>T-82280</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1135,16 +1135,16 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Thermometer was placed in the hot box.</t>
+          <t>All Drains have been cleaned and sanitized. They were done on 11/04/24 and 11/05/24</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1170,11 +1170,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>T-81754</t>
+          <t>T-82304</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1183,16 +1183,16 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Addressed specifically with team member who left item in hot box. Also addressed in pre-service with entire team.</t>
+          <t>This was addressed with responsible team member.</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1218,11 +1218,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>T-81755</t>
+          <t>T-82301</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1231,16 +1231,16 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>504--There is no potential for cross contamination between raw animal foods and ready to eat food. Proper hierarchy is followed.</t>
+          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Addressed specifically with team member who left item in hot box. Also addressed in pre-service with entire team.</t>
+          <t>The low boy fridge is currently marked as "out of order" and no food will be stored there. Waiting to hear back on proposal to fix.</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Milbank</t>
+          <t>Avenues - The World School</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>46270</t>
+          <t>25523</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1266,11 +1266,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>T-81642</t>
+          <t>T-82302</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1279,641 +1279,641 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Ice machine has been cleaned and we are now moving to a weekly cleaning schedule.</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Avenues - The World School</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25523</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>T-82298</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>This was addressed with responsible team member and retraining of entire team has occurred.</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cafe 45 Glover</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>52282</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>31</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>T-82279</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Will be monitoring every day to make sure the temperature gets taken. Executive Chef is aware and is following protocol on a daily basis</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cafe 45 Glover</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>52282</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>31</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>T-82276</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1004--Food contact surfaces are properly designed and constructed, and in good repair.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Went over which cutting boards needed replacement. Made a list to order from MTucker / Discarded the ones that were not usable</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cafe 45 Glover</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>52282</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>T-82277</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>had discussion with Deli prep person and stressed the importance of recording temperatures on the log on a daily basis</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Avenues - The World School</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>25523</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>31</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>T-82300</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>601--Sanitization: Proper temperatures met for high temperature sanitizing, and proper concentration for chemical sanitizing. Wiping cloth solution at proper concentration.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Dish machine Booster is being replaced. Proposal has been approved. Not currently using the machine as we are waiting for it to be fixed.</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cafe 45 Glover</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>52282</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>31</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>T-82282</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1100--Non-food contact surfaces are clean.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Spoke with Executive Chef and employees and stressed the issue after using Kitchen equipment to please make sure it is cleaned and sanitized</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Avenues - The World School</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>25523</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>T-82308</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>New containers have been purchased to ensure proper holding temperature.</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Avenues - The World School</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>25523</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>T-81754</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Addressed specifically with team member who left item in hot box. Also addressed in pre-service with entire team.</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Avenues - The World School</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25523</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>T-81753</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Thermometer was placed in the hot box.</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Avenues - The World School</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>25523</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>T-81755</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>504--There is no potential for cross contamination between raw animal foods and ready to eat food. Proper hierarchy is followed.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Addressed specifically with team member who left item in hot box. Also addressed in pre-service with entire team.</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>T-81647</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Two stations were combined into one and logs were not changed in Plumsense. Logs for omelet station and entree station were being done by an employee no longer on site, this has been addressed.</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>T-81646</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Food had been placed under to cool to a proper temperature and was not intended for service. Cooling foods will be moved to walkin fridge moving forward</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>14</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>T-81642</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>opening in celiling-building facilities contacted
 water- fans relocated to trouble area, staff educated on proper cleanup of these areas, especially on Fridays</t>
         </is>
       </c>
-      <c r="L11" t="n">
+      <c r="L24" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="n">
-        <v>14</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>T-81641</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1303--Plumbing is maintained in good repair.</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>drain pipe reattached properly</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="n">
-        <v>14</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>T-81645</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Nothin in comments. Cleaning has been addressed with team</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>T-81639</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>food will be moved to walkin coolers to come back down to temp instead of doing this in the lowboy at the station</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>T-81644</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>FLIK 7 - Paper Logs: Warewashing</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Staff education on importance of proper log-keeping</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>T-81647</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Two stations were combined into one and logs were not changed in Plumsense. Logs for omelet station and entree station were being done by an employee no longer on site, this has been addressed.</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>T-81643</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Hot holding unit serviced by Aircom-now properly holding temp on hot foods</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="n">
-        <v>14</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>T-81640</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>cleaning discussed with team during preservice</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>T-81646</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Food had been placed under to cool to a proper temperature and was not intended for service. Cooling foods will be moved to walkin fridge moving forward</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>T-81501</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>203--Eating, drinking, and use of tobacco/gum is restricted to designated areas. Proper tasting procedures are followed.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Lissa Herrera, Retail Manager, spoke with the team downstairs and reviewed the correct procedure for maintaining personal drinks. Personal designated area for drinks was provided to them, away from the production area.</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10</v>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>T-81499</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Temperatures are logged in electronically, but have been placed in incorrect categories. Re-train staff.  - Plan daily temperature logs checks at the end of day. Chef Yang and Sous Chef Ivan will monitor this.</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>T-81506</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>1308--Hot and cold water is available, at proper temperatures where required, and is under adequate pressure.</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Client was made aware about the issue. They will contact the Cravath facilities team for repair. The team has placed a sign by the hand wash sink to state it is "Out of Order</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10</v>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>T-81507</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>1308--Hot and cold water is available, at proper temperatures where required, and is under adequate pressure.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>As advised by client, they will contact and follow up with the Cravath Facility team. Sign was placed by the hand wash sink that reads "Out of Order</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10</v>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>T-81505</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Chef Yang and Sous Chef Ivan will re-train staff and plan daily temperature log checks at the end of day.</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1924,12 +1924,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
+          <t>Milbank</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>46270</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1939,11 +1939,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>T-81500</t>
+          <t>T-81639</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1952,16 +1952,16 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Re-train staff responsible for those stations - Plan daily temperature logs checks at the end of day. Chef Yang, Sous Chef Ivan, Dave Williams, and David Diaz will monitor this</t>
+          <t>food will be moved to walkin coolers to come back down to temp instead of doing this in the lowboy at the station</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1972,12 +1972,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
+          <t>Milbank</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>46270</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1987,11 +1987,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>T-81508</t>
+          <t>T-81640</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2000,16 +2000,16 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>We spoke with the client regarding the facility issue. They will contact and follow up with the Cravath facility team.</t>
+          <t>cleaning discussed with team during preservice</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2020,12 +2020,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
+          <t>Milbank</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>46270</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2035,11 +2035,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>T-81509</t>
+          <t>T-81641</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -2048,16 +2048,16 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
+          <t>1303--Plumbing is maintained in good repair.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>We spoke with the client regarding the equipment failure. They will contact and follow up with the Cravath facility team.</t>
+          <t>drain pipe reattached properly</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -2068,12 +2068,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
+          <t>Milbank</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>46270</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2083,11 +2083,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>T-81502</t>
+          <t>T-81643</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -2101,394 +2101,394 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
+          <t>Hot holding unit serviced by Aircom-now properly holding temp on hot foods</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>14</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>T-81644</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>FLIK 7 - Paper Logs: Warewashing</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Staff education on importance of proper log-keeping</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>T-81645</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Nothin in comments. Cleaning has been addressed with team</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>T-81505</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Chef Yang and Sous Chef Ivan will re-train staff and plan daily temperature log checks at the end of day.</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>T-81504</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Re-train responsible staff. EHA talked about this with the team during pre-service on day of audit. Spoke with Chef David Diaz and Sous Chef Ivan discussed the correct procedure at pre-service</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>T-81501</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>203--Eating, drinking, and use of tobacco/gum is restricted to designated areas. Proper tasting procedures are followed.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Lissa Herrera, Retail Manager, spoke with the team downstairs and reviewed the correct procedure for maintaining personal drinks. Personal designated area for drinks was provided to them, away from the production area.</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>T-81503</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1303--Plumbing is maintained in good repair.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>As advised by client, they will follow up with the Cravath Facility Team for repairs that need to take place.</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>T-81509</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>We spoke with the client regarding the equipment failure. They will contact and follow up with the Cravath facility team.</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>T-81502</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
           <t>A: As advised by client, they will follow up with the Cravath Facility Team about the equipment not maintaining temperature of hot foods. 
 B: RE-train staff/those responsible for the prep regarding the food left at ambient temperature. Discussed at pre-service.</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E29" t="n">
-        <v>10</v>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>T-81503</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>1303--Plumbing is maintained in good repair.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>As advised by client, they will follow up with the Cravath Facility Team for repairs that need to take place.</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E30" t="n">
-        <v>10</v>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>T-81504</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Re-train responsible staff. EHA talked about this with the team during pre-service on day of audit. Spoke with Chef David Diaz and Sous Chef Ivan discussed the correct procedure at pre-service</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>The Urban School of San Francisco</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>41150</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E31" t="n">
-        <v>10</v>
-      </c>
-      <c r="F31" t="n">
-        <v>23</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>T-82009</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>812--When time is observed being used as a public health control: written procedures are available and followed.</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>time temp log will be used for breakfast sand</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>The Urban School of San Francisco</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>41150</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E32" t="n">
-        <v>10</v>
-      </c>
-      <c r="F32" t="n">
-        <v>23</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>T-82013</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>logs filled out daily</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>The Urban School of San Francisco</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>41150</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E33" t="n">
-        <v>10</v>
-      </c>
-      <c r="F33" t="n">
-        <v>23</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>T-82010</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>FLIK 7 - Paper Logs: Warewashing</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>ware washing logs implemented</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>The Urban School of San Francisco</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>41150</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E34" t="n">
-        <v>10</v>
-      </c>
-      <c r="F34" t="n">
-        <v>23</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>T-82008</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>complete logs for Entree</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>The Urban School of San Francisco</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>41150</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E35" t="n">
-        <v>10</v>
-      </c>
-      <c r="F35" t="n">
-        <v>23</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>T-82012</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>proper cooling technique used</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>The Urban School of San Francisco</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>41150</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E36" t="n">
-        <v>10</v>
-      </c>
-      <c r="F36" t="n">
-        <v>23</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>T-82014</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>facilities cleaned grab and go cooler</t>
-        </is>
-      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -2496,17 +2496,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sari Feltman</t>
+          <t>Peter Soguero</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The Urban School of San Francisco</t>
+          <t>Cravath Swaine &amp; Moore LLP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>41150</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -2516,11 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>T-82007</t>
+          <t>T-81508</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2529,12 +2529,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>cooking cooling logs will be used</t>
+          <t>We spoke with the client regarding the facility issue. They will contact and follow up with the Cravath facility team.</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -2544,17 +2544,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sari Feltman</t>
+          <t>Peter Soguero</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The Urban School of San Francisco</t>
+          <t>Cravath Swaine &amp; Moore LLP</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>41150</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2564,11 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>T-82011</t>
+          <t>T-81507</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -2577,12 +2577,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
+          <t>1308--Hot and cold water is available, at proper temperatures where required, and is under adequate pressure.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ordered thermometers</t>
+          <t>As advised by client, they will contact and follow up with the Cravath Facility team. Sign was placed by the hand wash sink that reads "Out of Order</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -2592,17 +2592,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sari Feltman</t>
+          <t>Peter Soguero</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hopkins School</t>
+          <t>Cravath Swaine &amp; Moore LLP</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -2612,11 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>T-81688</t>
+          <t>T-81500</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2625,32 +2625,32 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>FLIK 9-TCS food items in original packaging are marked with date received.</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Policy for receiving reviewed with all staff, ensuring that receiving dates are written on all food items.</t>
+          <t>Re-train staff responsible for those stations - Plan daily temperature logs checks at the end of day. Chef Yang, Sous Chef Ivan, Dave Williams, and David Diaz will monitor this</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sari Feltman</t>
+          <t>Peter Soguero</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hopkins School</t>
+          <t>Cravath Swaine &amp; Moore LLP</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2660,11 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>T-81691</t>
+          <t>T-81499</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -2673,32 +2673,32 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>With peanut butter being available to the entire school coupled with the severity and seriousness of the risk involved with the open container of peanut butter on the deli station, the implementation of a stand alone station for peanut butter is necessary. An email to the client will be sent to inform/explain the change to procedures and a new isolated service area will be utilized, conforming to the company standards</t>
+          <t>Temperatures are logged in electronically, but have been placed in incorrect categories. Re-train staff.  - Plan daily temperature logs checks at the end of day. Chef Yang and Sous Chef Ivan will monitor this.</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sari Feltman</t>
+          <t>Peter Soguero</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hopkins School</t>
+          <t>Cravath Swaine &amp; Moore LLP</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2708,11 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>T-81693</t>
+          <t>T-81506</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2721,16 +2721,16 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>812--When time is observed being used as a public health control: written procedures are available and followed.</t>
+          <t>1308--Hot and cold water is available, at proper temperatures where required, and is under adequate pressure.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Primary employee who works the station with daily TILT procedure in place was not in at time of audit, will review entire procedure with said employee and will review TILT sheet daily with staff to ensure good habits are reinforced and sheet log is filled out fully/appropriately</t>
+          <t>Client was made aware about the issue. They will contact the Cravath facilities team for repair. The team has placed a sign by the hand wash sink to state it is "Out of Order</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hopkins School</t>
+          <t>The Urban School of San Francisco</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>41150</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2756,11 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>T-81690</t>
+          <t>T-82008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2769,16 +2769,16 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>The holes observed (under three bay sink, by dishwasher entrance, by hand sink near cooler 1, ceiling tile above three bay sink) have had work orders placed to have them repaired/plugged</t>
+          <t>complete logs for Entree</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2789,12 +2789,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hopkins School</t>
+          <t>The Urban School of San Francisco</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>41150</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2804,11 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>T-81689</t>
+          <t>T-82013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2817,16 +2817,16 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1303--Plumbing is maintained in good repair.</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Work order has been placed with facilities and will be repaired promptly</t>
+          <t>logs filled out daily</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2837,12 +2837,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hopkins School</t>
+          <t>The Urban School of San Francisco</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>41150</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2852,11 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>T-81694</t>
+          <t>T-82007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2865,16 +2865,16 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
+          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>A daily check in with each station at the end of service will be reviewing logs performed by the hourly staff by either the DDS or EC to ensure that all sheets have been submitted and are organized/on file to avoid this issue moving forward</t>
+          <t>cooking cooling logs will be used</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hopkins School</t>
+          <t>The Urban School of San Francisco</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>41150</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2900,11 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>T-81695</t>
+          <t>T-82011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2913,16 +2913,16 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
+          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>A review and retraining on the SOPs of the HACCP monitor was reviewed today following lunch service. All team has been instructed to upload any/every temp log after each session has been completed to elminate this issue in the future. This will be echoed in daily am line ups, weekly meetings and pre service meetings.</t>
+          <t>ordered thermometers</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hopkins School</t>
+          <t>The Urban School of San Francisco</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>41150</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2948,11 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>T-81692</t>
+          <t>T-82014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2961,15 +2961,543 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
+          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>facilities cleaned grab and go cooler</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>The Urban School of San Francisco</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>41150</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>23</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>T-82012</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>proper cooling technique used</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>The Urban School of San Francisco</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>41150</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>23</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>T-82009</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>812--When time is observed being used as a public health control: written procedures are available and followed.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>time temp log will be used for breakfast sand</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>The Urban School of San Francisco</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>41150</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>23</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>T-82010</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>FLIK 7 - Paper Logs: Warewashing</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ware washing logs implemented</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hopkins School</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>15</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>T-81690</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>The holes observed (under three bay sink, by dishwasher entrance, by hand sink near cooler 1, ceiling tile above three bay sink) have had work orders placed to have them repaired/plugged</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Hopkins School</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>15</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>T-81688</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>FLIK 9-TCS food items in original packaging are marked with date received.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Policy for receiving reviewed with all staff, ensuring that receiving dates are written on all food items.</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hopkins School</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>15</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>T-81689</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1303--Plumbing is maintained in good repair.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Work order has been placed with facilities and will be repaired promptly</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hopkins School</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>15</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>T-81695</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>A review and retraining on the SOPs of the HACCP monitor was reviewed today following lunch service. All team has been instructed to upload any/every temp log after each session has been completed to elminate this issue in the future. This will be echoed in daily am line ups, weekly meetings and pre service meetings.</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Hopkins School</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" t="n">
+        <v>15</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>T-81693</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>812--When time is observed being used as a public health control: written procedures are available and followed.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Primary employee who works the station with daily TILT procedure in place was not in at time of audit, will review entire procedure with said employee and will review TILT sheet daily with staff to ensure good habits are reinforced and sheet log is filled out fully/appropriately</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hopkins School</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" t="n">
+        <v>15</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>T-81694</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>A daily check in with each station at the end of service will be reviewing logs performed by the hourly staff by either the DDS or EC to ensure that all sheets have been submitted and are organized/on file to avoid this issue moving forward</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hopkins School</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>15</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>T-81692</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
           <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>Immediately following service today there was a retraining with all staff to review the HACCP monitor SOPs, and it was stressed to hit upload after each batch of temperatures are measured. This will be echoed in preservice meetings, weekly staff meetings, and a daily check in with each staff member when they turn in the paper logs of the day and tablet is reviewed for uploaded information.</t>
         </is>
       </c>
-      <c r="L46" t="n">
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hopkins School</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>T-81691</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>With peanut butter being available to the entire school coupled with the severity and seriousness of the risk involved with the open container of peanut butter on the deli station, the implementation of a stand alone station for peanut butter is necessary. An email to the client will be sent to inform/explain the change to procedures and a new isolated service area will be utilized, conforming to the company standards</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3117,7 +3645,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Interior of ice machine/ice bins and/or ice dispenser chute (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Other--Note in comments below (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3686,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Other--Note in comments below (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Interior of ice machine/ice bins and/or ice dispenser chute (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3932,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Food storage or display containers (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Other--Note in comments below (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3973,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Other--Note in comments below (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Food storage or display containers (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -3568,7 +4096,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>NO--Heat source not close enough to food item(s) - Equipment not properly operated or used (CRITICAL)</t>
+          <t>NO--Hot food left out at room temperature - Food is not controlled using temperature or time (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -3609,7 +4137,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>NO--Hot food left out at room temperature - Food is not controlled using temperature or time (CRITICAL)</t>
+          <t>NO--Heat source not close enough to food item(s) - Equipment not properly operated or used (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -4444,7 +4972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4552,12 +5080,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>52282</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Cafe 45 Glover</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -4571,7 +5099,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>T-82307</t>
+          <t>T-82281</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -4580,7 +5108,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
+          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
         </is>
       </c>
     </row>
@@ -4592,12 +5120,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -4607,11 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>T-82281</t>
+          <t>T-82221</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -4620,7 +5148,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
     </row>
@@ -4632,12 +5160,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -4647,11 +5175,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>T-82299</t>
+          <t>T-82218</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -4660,7 +5188,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>FLIK 9-TCS food items in original packaging are marked with date received.</t>
         </is>
       </c>
     </row>
@@ -4672,12 +5200,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -4687,11 +5215,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>T-82304</t>
+          <t>T-82217</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -4700,7 +5228,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
     </row>
@@ -4712,12 +5240,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -4727,11 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>T-82308</t>
+          <t>T-82216</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -4752,12 +5280,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -4767,11 +5295,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>T-82301</t>
+          <t>T-82219</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -4780,7 +5308,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
     </row>
@@ -4792,12 +5320,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -4807,11 +5335,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>T-82306</t>
+          <t>T-82220</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -4820,24 +5348,24 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>504--There is no potential for cross contamination between raw animal foods and ready to eat food. Proper hierarchy is followed.</t>
+          <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Peter Soguero</t>
+          <t>Sari Feltman</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>61138</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Castilleja School</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -4847,11 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>T-82305</t>
+          <t>T-81949</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -4860,24 +5388,24 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
+          <t>505--Food is properly stored to protect it from contamination (i.e. stored off the floor, kept covered during storage, properly stored on ice, not located in prohibited areas).</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Peter Soguero</t>
+          <t>Sari Feltman</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>61138</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Castilleja School</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -4887,11 +5415,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>T-82300</t>
+          <t>T-81944</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -4900,24 +5428,24 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>601--Sanitization: Proper temperatures met for high temperature sanitizing, and proper concentration for chemical sanitizing. Wiping cloth solution at proper concentration.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Peter Soguero</t>
+          <t>Sari Feltman</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>61138</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Castilleja School</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -4927,11 +5455,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>T-82303</t>
+          <t>T-81945</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -4940,24 +5468,24 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1303--Plumbing is maintained in good repair.</t>
+          <t>402--Food is in wholesome, sound condition and is unadulterated (no spoilage, no contamination with foreign material, intact food packaging). Damaged and/or recalled items are segregated.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Peter Soguero</t>
+          <t>Sari Feltman</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>61138</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Castilleja School</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -4967,11 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>T-82302</t>
+          <t>T-81946</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -4980,24 +5508,24 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>505--Food is properly stored to protect it from contamination (i.e. stored off the floor, kept covered during storage, properly stored on ice, not located in prohibited areas).</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Peter Soguero</t>
+          <t>Sari Feltman</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>61138</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Castilleja School</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -5007,11 +5535,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>T-82298</t>
+          <t>T-81948</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -5020,24 +5548,24 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Peter Soguero</t>
+          <t>Sari Feltman</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19764</t>
+          <t>53051</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dechert LLP</t>
+          <t>The Logan School</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -5047,11 +5575,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>T-82221</t>
+          <t>T-81942</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -5060,24 +5588,24 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Peter Soguero</t>
+          <t>Sari Feltman</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>19764</t>
+          <t>61138</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dechert LLP</t>
+          <t>Castilleja School</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -5087,11 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>T-82216</t>
+          <t>T-81947</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -5100,24 +5628,24 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Peter Soguero</t>
+          <t>Sari Feltman</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>19764</t>
+          <t>61138</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dechert LLP</t>
+          <t>Castilleja School</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -5127,11 +5655,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>T-82217</t>
+          <t>T-81950</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -5147,17 +5675,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Peter Soguero</t>
+          <t>Sari Feltman</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19764</t>
+          <t>61138</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dechert LLP</t>
+          <t>Castilleja School</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -5167,11 +5695,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>T-82220</t>
+          <t>T-81943</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -5180,24 +5708,24 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
+          <t>104--The unit has the Compass Group written procedures for responding to a diarrheal or vomiting event.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Peter Soguero</t>
+          <t>Sari Feltman</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19764</t>
+          <t>61138</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Dechert LLP</t>
+          <t>Castilleja School</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -5207,11 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>T-82218</t>
+          <t>T-81951</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -5220,24 +5748,24 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>FLIK 9-TCS food items in original packaging are marked with date received.</t>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Peter Soguero</t>
+          <t>Sari Feltman</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>19764</t>
+          <t>54002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dechert LLP</t>
+          <t>Vistamar School</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -5247,11 +5775,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>T-82219</t>
+          <t>T-81714</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -5260,7 +5788,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>601--Sanitization: Proper temperatures met for high temperature sanitizing, and proper concentration for chemical sanitizing. Wiping cloth solution at proper concentration.</t>
         </is>
       </c>
     </row>
@@ -5272,12 +5800,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>54002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Castilleja School</t>
+          <t>Vistamar School</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -5287,11 +5815,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>T-81946</t>
+          <t>T-81713</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -5300,7 +5828,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>505--Food is properly stored to protect it from contamination (i.e. stored off the floor, kept covered during storage, properly stored on ice, not located in prohibited areas).</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
     </row>
@@ -5312,12 +5840,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>53051</t>
+          <t>24526</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The Logan School</t>
+          <t>Bishop Stang</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -5327,11 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>T-81942</t>
+          <t>T-81410</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -5340,7 +5868,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
         </is>
       </c>
     </row>
@@ -5352,12 +5880,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>24526</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Castilleja School</t>
+          <t>Bishop Stang</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -5367,11 +5895,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>T-81951</t>
+          <t>T-81412</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -5380,7 +5908,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
         </is>
       </c>
     </row>
@@ -5392,12 +5920,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>24526</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Castilleja School</t>
+          <t>Bishop Stang</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -5407,11 +5935,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>T-81947</t>
+          <t>T-81411</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -5420,7 +5948,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>901-- Food containers holding food/ingredients that are removed from their original packages are labeled to identify contents that are not easily identifiable</t>
         </is>
       </c>
     </row>
@@ -5432,12 +5960,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>24526</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Castilleja School</t>
+          <t>Bishop Stang</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -5447,11 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>T-81943</t>
+          <t>T-81413</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -5460,7 +5988,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>104--The unit has the Compass Group written procedures for responding to a diarrheal or vomiting event.</t>
+          <t>1002--In-use utensils are properly stored. Proper utensils used to dispense food.</t>
         </is>
       </c>
     </row>
@@ -5472,12 +6000,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Castilleja School</t>
+          <t>The Carey School</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -5487,11 +6015,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>T-81948</t>
+          <t>T-81340</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -5500,7 +6028,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+          <t>FLIK 7 - Paper Logs: Warewashing</t>
         </is>
       </c>
     </row>
@@ -5512,12 +6040,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Castilleja School</t>
+          <t>The Carey School</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -5527,11 +6055,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>T-81949</t>
+          <t>T-81328</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -5540,7 +6068,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>505--Food is properly stored to protect it from contamination (i.e. stored off the floor, kept covered during storage, properly stored on ice, not located in prohibited areas).</t>
+          <t>FLIK 5A - Paper Logs: Refrigeration temperatures are monitored AM and PM daily</t>
         </is>
       </c>
     </row>
@@ -5552,12 +6080,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Castilleja School</t>
+          <t>The Carey School</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -5567,11 +6095,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>T-81945</t>
+          <t>T-81343</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -5580,7 +6108,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>402--Food is in wholesome, sound condition and is unadulterated (no spoilage, no contamination with foreign material, intact food packaging). Damaged and/or recalled items are segregated.</t>
+          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
         </is>
       </c>
     </row>
@@ -5592,12 +6120,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Castilleja School</t>
+          <t>The Carey School</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -5607,11 +6135,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>T-81944</t>
+          <t>T-81339</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -5620,7 +6148,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
         </is>
       </c>
     </row>
@@ -5632,12 +6160,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Castilleja School</t>
+          <t>The Carey School</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -5647,11 +6175,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>T-81950</t>
+          <t>T-81332</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -5672,12 +6200,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>54002</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vistamar School</t>
+          <t>The Carey School</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -5687,11 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>T-81714</t>
+          <t>T-81334</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -5700,7 +6228,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>601--Sanitization: Proper temperatures met for high temperature sanitizing, and proper concentration for chemical sanitizing. Wiping cloth solution at proper concentration.</t>
+          <t>104--The unit has the Compass Group written procedures for responding to a diarrheal or vomiting event.</t>
         </is>
       </c>
     </row>
@@ -5712,12 +6240,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>54002</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Vistamar School</t>
+          <t>The Carey School</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -5727,11 +6255,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>T-81713</t>
+          <t>T-81336</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -5740,7 +6268,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>FLIK 9-TCS food items in original packaging are marked with date received.</t>
         </is>
       </c>
     </row>
@@ -5752,12 +6280,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>24526</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bishop Stang</t>
+          <t>The Carey School</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -5767,11 +6295,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>T-81412</t>
+          <t>T-81331</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -5780,7 +6308,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
     </row>
@@ -5792,12 +6320,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>24526</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bishop Stang</t>
+          <t>The Carey School</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -5807,11 +6335,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>T-81411</t>
+          <t>T-81327</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -5820,7 +6348,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>901-- Food containers holding food/ingredients that are removed from their original packages are labeled to identify contents that are not easily identifiable</t>
+          <t>1300--Pest activity/evidence of pest activity is not observed.</t>
         </is>
       </c>
     </row>
@@ -5832,12 +6360,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>24526</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bishop Stang</t>
+          <t>The Carey School</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -5847,11 +6375,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>T-81410</t>
+          <t>T-81342</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -5860,7 +6388,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
+          <t>FLIK 4A - Paper Logs: TCS Receiving temperatures documented for each delivery</t>
         </is>
       </c>
     </row>
@@ -5872,12 +6400,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>24526</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bishop Stang</t>
+          <t>The Carey School</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -5887,11 +6415,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>T-81413</t>
+          <t>T-81329</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -5900,7 +6428,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1002--In-use utensils are properly stored. Proper utensils used to dispense food.</t>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
         </is>
       </c>
     </row>
@@ -5931,7 +6459,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>T-81330</t>
+          <t>T-81341</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -5940,7 +6468,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>FLIK 3A - Paper Logs: Food Production Temperatures</t>
+          <t>100--Person-in-charge is present and is certified by an accredited program and the certificate is current.</t>
         </is>
       </c>
     </row>
@@ -5971,7 +6499,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>T-81328</t>
+          <t>T-81338</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -5980,7 +6508,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>FLIK 5A - Paper Logs: Refrigeration temperatures are monitored AM and PM daily</t>
+          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6539,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>T-81335</t>
+          <t>T-81333</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -6020,7 +6548,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6579,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>T-81342</t>
+          <t>T-81337</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -6060,7 +6588,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>FLIK 4A - Paper Logs: TCS Receiving temperatures documented for each delivery</t>
+          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6619,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>T-81329</t>
+          <t>T-81335</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -6100,7 +6628,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6659,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>T-81336</t>
+          <t>T-81330</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -6140,7 +6668,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>FLIK 9-TCS food items in original packaging are marked with date received.</t>
+          <t>FLIK 3A - Paper Logs: Food Production Temperatures</t>
         </is>
       </c>
     </row>
@@ -6171,7 +6699,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>T-81343</t>
+          <t>T-81344</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -6180,447 +6708,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>60126</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>The Carey School</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E44" t="n">
-        <v>10</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>T-81337</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>60126</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>The Carey School</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E45" t="n">
-        <v>10</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>T-81332</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>60126</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>The Carey School</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E46" t="n">
-        <v>10</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>T-81333</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>60126</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>The Carey School</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E47" t="n">
-        <v>10</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>T-81341</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>100--Person-in-charge is present and is certified by an accredited program and the certificate is current.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>60126</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>The Carey School</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E48" t="n">
-        <v>10</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>T-81338</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>60126</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>The Carey School</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E49" t="n">
-        <v>10</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>T-81340</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>FLIK 7 - Paper Logs: Warewashing</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>60126</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>The Carey School</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E50" t="n">
-        <v>10</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>T-81334</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>104--The unit has the Compass Group written procedures for responding to a diarrheal or vomiting event.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>60126</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>The Carey School</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E51" t="n">
-        <v>10</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>T-81339</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>60126</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>The Carey School</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E52" t="n">
-        <v>10</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>T-81344</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
           <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>60126</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>The Carey School</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E53" t="n">
-        <v>10</v>
-      </c>
-      <c r="F53" t="n">
-        <v>3</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>T-81331</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>60126</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>The Carey School</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E54" t="n">
-        <v>10</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>T-81327</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>1300--Pest activity/evidence of pest activity is not observed.</t>
         </is>
       </c>
     </row>
